--- a/metadat_asc_wlabels.xlsx
+++ b/metadat_asc_wlabels.xlsx
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,8 +1172,8 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1192,8 +1192,8 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,8 +1412,8 @@
       <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
+      <c r="F18" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1721,5 +1721,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/metadat_asc_wlabels.xlsx
+++ b/metadat_asc_wlabels.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
   <si>
     <t>#SampleID</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Association_with</t>
+  </si>
+  <si>
+    <t>Classification</t>
   </si>
 </sst>
 </file>
@@ -721,10 +724,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1049,7 +1050,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1076,9 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1089,10 +1093,10 @@
       <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1109,10 +1113,10 @@
       <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1129,10 +1133,10 @@
       <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1149,10 +1153,10 @@
       <c r="D5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1169,10 +1173,10 @@
       <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1189,10 +1193,10 @@
       <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1209,10 +1213,10 @@
       <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1229,10 +1233,10 @@
       <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1249,10 +1253,10 @@
       <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1269,10 +1273,10 @@
       <c r="D11" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1289,10 +1293,10 @@
       <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1309,10 +1313,10 @@
       <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1329,10 +1333,10 @@
       <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1349,10 +1353,10 @@
       <c r="D15" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1369,10 +1373,10 @@
       <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1389,10 +1393,10 @@
       <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1409,10 +1413,10 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1429,10 +1433,10 @@
       <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1449,10 +1453,10 @@
       <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1469,10 +1473,10 @@
       <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1489,10 +1493,10 @@
       <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1509,10 +1513,10 @@
       <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1529,10 +1533,10 @@
       <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1549,10 +1553,10 @@
       <c r="D25" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1569,10 +1573,10 @@
       <c r="D26" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1589,10 +1593,10 @@
       <c r="D27" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1609,10 +1613,10 @@
       <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1629,10 +1633,10 @@
       <c r="D29" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1649,10 +1653,10 @@
       <c r="D30" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1669,10 +1673,10 @@
       <c r="D31" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1689,10 +1693,10 @@
       <c r="D32" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1709,10 +1713,10 @@
       <c r="D33" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
         <v>5</v>
       </c>
     </row>
